--- a/500all/speech_level/speeches_CHRG-114hhrg99854.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99854.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and today's hearing is going to be on the EPS Improvement Act of 2016. And I will introduce our witnesses after we have an opportunity to make an opening statement.    But this hearing this morning is going to be focused on our efforts to correct a little glitch in the 2005 Energy Policy Act relating to external power sources and solid state liquid lighting systems.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412457</t>
   </si>
   <si>
-    <t>Renee L. Ellmers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Chairman Whitfield, so much for this opportunity and for holding this hearing today, and I want to thank our panel for being here as well. There are many people who have been working on this issue trying to correct the glitch in the regulations, coming up and helping to draft this legislation and make this hearing possible.    First, I would like to thank my colleagues, Mike Pompeo, Diana DeGette, Doris Matsui, and Charlie Dent, and their staff for their support and hard work throughout this process. Finally, but most importantly, Mr. Chairman, I would like to thank the committee staff itself. You have put up a great teamwork together on this issue and you have been wonderful in working with my staff and throughout this whole process. I am truly thankful and grateful for their time and effort.    The EPS Improvement Act of 2016 is a bipartisan and commonsense bill that would provide certainty to manufacturers and resolve the underlying issues of the DOE external power supply rule. In 2005, Congress directed the Department of Energy to develop energy efficiency standards for external power supplies and they developed a definition for EPS devices. DOE stated that the products that were intended to be covered by these standards, quote, convert household electric current into DC or lower power voltage to AC to operate consumer products such as laptop computers or smart phones. And that is pretty much the plan.    Years after the passage of the Energy Policy Act of 2005, new technologies arose such as OLED and LED drivers were introduced into the marketplace. We all know how quickly technology is advancing, and innovation. While the development of this technology increased energy efficiency, it has also caused uncertainty in the manufacturing sector as DOE roped in drivers as products to also be covered.    DOE is now attempting to regulate a product that was not in the marketplace at the time Congress initially directed the Department to set external power supply standards. Both manufacturers and the energy efficiency community agree that this was not the intent of Congress, as LED and OLED drivers were not in the marketplace in 2005 when Congress directed DOE to develop these standards. DOE has continued with this misguided rule despite the distinct differences in the design and use of LED drivers to that of the design and use of EPS.    One example of the differences is that EPS use single stage power conversion while LED drivers use a two stage power conversion. Thankfully, this legislation resolves the problem by excluding SSL drivers for this technology and prevents it from being included in other broad rulemaking. This regulation will not only stifle innovation but inject uncertainty into the manufacturing sector while creating less energy-efficient products and higher energy prices for consumers.    Without congressional action by February 10th of this year, this rule could unintentionally threaten thousands of jobs. I look forward to hearing from our witnesses, and with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Well, thank you, Mr. Chairman. We are here today to hold the legislative hearing on the External Power Supply, or EPS, Improvement Act, which addresses an important issue for LED innovation, manufacturers and future investments in this exciting industry. The EPS Improvement Act would exempt electrical drivers that power solid state lighting products from the Department of Energy's energy conservation standard for external power supplies.    This targeted bill sponsored by my colleagues Renee Ellmers and Diana DeGette would amend the Energy Policy and Conservation Act to exclude LED drivers from standards that go into effect on February 10th of this year. Energy efficiency standards are important as they save consumers money on their energy bills and reduce greenhouse gas emissions.    It is estimated that the national appliance and equipment efficiency standards have saved, believe it or not, 5.4 quadrillion BTUs of energy in 2014 alone. The standards enacted to date will save consumers and businesses more than $1.1 trillion through 2035--I see heads nodding here--and the technology innovation spurred by these standards is critical. We need to support innovation to address climate change with energy efficiency and renewable technology.    My Grid Innovation Caucus co-chairwoman, Congresswoman Ellmers, and I believe that we must promote technologies that help us adopt to our growing energy needs and provide additional options for consumers, businesses and the economy. And we must use the energy standards in a manner that does not confuse the market. At the time the Energy Policy and Conservation Act was amended, LED drivers were an emerging technology but they still fell under the broad definition of an external power supply. LED drivers represent the next wave of lighting technology and capabilities enabling smart buildings, industry facilities and homes and reduce their costs and enhance their performance.    Investments in LED driver technology are robust and ongoing; new standards at this time could slow down additional investments. Leaving LED drivers in the EPS final rule could hinder the transition to more energy-efficient lighting in the marketplace and increase energy use and the cost for consumers.    This legislation, however, does not grant the Department of Energy the authority to prescribe energy conservation standards down the road, or it does grant--excuse me--the DOE the authority to prescribe energy conservation standards down the road so that it can implement more appropriate standards for the LED industry when the time is appropriate.    I support this EPS Improvement Act because it clarifies congressional intent by clarifying the statutory definition of external power supplies to exclude LED drivers. This measure was developed in consultation with the DOE and is supported by industry stakeholders. We should provide LED manufacturers market stability so they are able to improve technology that has already been demonstrated in its ability to increase energy efficiency in consumer and commercial applications.    I thank our witnesses for joining us today and look forward to hearing your testimony. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -88,24 +79,15 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. I want to thank you and the ranking member of the subcommittee for holding today's legislative hearing on the EPS Improvement Act of 2010. This bill authored by Representatives Ellmers and DeGette would exempt LED consumer light bulbs from new mandatory efficiency standards for external power supplies. And the development of LED light bulbs has been an energy efficiency success story and I am concerned about any action no matter how well intentioned that might interfere with that success.    More than a decade ago, Congress amended the Energy Policy and Conservation Act to set efficiency standards for external power supplies. An external power supply, or EPS, is typically used to convert household electric current to help operate consumer products. For most Americans that means the big plugs that are associated with laptop computers, home cordless phones, answering machines and the like. As part of this regulation, the DOE has moved forward on a plan to include power drivers for solid state lighting which are an integral part of highly efficient LED replacement light bulbs. In its comments with stakeholders it is clear that DOE needs statutory authority to alter the law's definitions.    Meanwhile, the National Electrical Manufacturers Association argued that Congress didn't intend to cover consumer LED light bulbs when it enacted EPACT 2005, or when it amended the law in the 2007 Energy Independence and Security Act. I am inclined to agree that Congress did not intend to capture LED light bulbs in the 2014 rule. The regulation of EPSs has been discussed at length both in this committee and within the stakeholder community. Never once had LED light bulbs been contemplated; instead, the discussion was focused on television sets, computers and stereo equipment.    So it is clear to me, however, that Congress' multiple efforts to legislate in this area over a short time frame has added confusion rather than clarity to the statute who explicitly carved out some things like medical devices from the definition of an EPS, but we did not carve out LED light bulbs. I think that had we known more about the workings of LED light bulbs at the time we would have exempted them specifically from mandatory efficiency standards from the start.    So right now, a modern LED light bulb that replaces the kind of 60-watt light bulb we used in the last century will only consume nine watts of power to produce the same amount of light, last for a decade, and sells for as little as $3.99. That is a great deal for any consumer and I see no benefit to the consumer, the environment or the economy from regulating the efficiency of these light bulbs at this time.    I am encouraged by today's legislative hearing to put this issue in perspective and I am hopeful we can work together to expeditiously move this bill forward. And I would just like now to yield the balance of my time to the lead sponsor of the legislation, the gentlewoman from Colorado, Ms. DeGette.</t>
   </si>
   <si>
-    <t>DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much for yielding to me, Ranking Member Pallone. I am really proud to be leading this bill with Representative Ellmers, truly working across the aisle, literally, today. And as has been said, this bill will allow the Department of Energy to provide, to prescribe a separate energy conservation standard for LED drivers.    As we have been discussing, when this committee wrote the Energy Policy and Conservation Act of 2005 it directed the Department of Energy to develop a conservation standard for various external power supply products. That term was meant to cover products that convert household electric current in order to operate a consumer product like a laptop computer or a smart phone.    At that time in 2005, LED lighting was in its very early stages. And as much we try and often succeed, we didn't have a crystal ball to see into the future of LED lighting. So since that time because of the broad definition we created for external power supplies, emergent LED drivers were swept up into a conservation standard that just doesn't make sense. This means that, although LED drivers are highly energy-efficient, they can't meet the EPS conservation standard and their ability to compete in the competitive lighting market is now an open question.    Well, it seems like a technicality, but the bill is actually vitally important. LED drivers represent the next wave of lighting technology allowing for better and faster Internet connections, enabling smart buildings, industry facilities and homes to reduce their costs, improving consumer experiences in the retail industry and even leading to even faster recovery times in hospitals by controlling the color and timing of the lights in recovery rooms.    It is estimated that switching to LED lighting could reduce national lighting electricity use by nearly one half by 2030. That is the annual equivalent to saving three quadrillion BTUs, which is worth $26 billion in today's standards. So by passing the EPS Improvement Act of 2016 will let the LED lighting revolution continue, and in turn help lower energy prices for every American business.    I want to thank the panelists for coming today. I look forward to your testimony, and I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. That concludes our opening statements. And before I introduce our panel of witnesses I do want to thank both the Democratic and Republican staff, certainly Diana DeGette and Renee Ellmers for working together on this important legislation. And we appreciate very much the National Electrical Manufacturers Association and the American Council for an Energy-Efficient Economy helping us to craft this legislation.    And we are delighted that we have two witnesses here today representing those organizations. First of all, we have Jennifer Amann who is the Buildings Program director at the American Council for an Energy-Efficient Economy, and then we have Dr. Pekka Hakkarainen who is vice president of Lutron Electronics. I think they are from Pennsylvania, I believe. And you are testifying on behalf of the National Electrical Manufacturers Association.    So we appreciate both of you being with us this morning, and we look forward to your opening statement and your expertise in this area. And with that Ms. Amann, I will recognize you for your 5-minute opening statement.</t>
   </si>
   <si>
-    <t>Amann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Amann. My name is Jennifer Amann, and I am----</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you very much. And Dr. Hakkarainen, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Hakkarainen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hakkarainen. Good morning, Chairman Whitfield and Congressman McNerney and members of the committee. My name is Pekka Hakkarainen. I am vice president at Lutron. I have been employed there for 25 years.    I want to first thank the committee for giving me the opportunity to testify on the EPS Improvement Act. The bill before you fixes a needed technical issue with the Department of Energy's February 2014 EPS energy conservation standard that goes into effect on February 10th of this year. I am here today testifying on behalf of Lutron Electronics and the National Electrical Manufacturers Association.    A number of NEMA's members who manufacture and distribute solid state LED lighting products are impacted by the DOE external power supply standard. My company Lutron Electronics is a privately held manufacturer founded in 1961 and is headquartered in Coopersburg, Pennsylvania. Our products range from consumer dimmers to motorized window shades to lighting management systems for both residential and commercial buildings, and they also include LED drivers. And we estimate that in the U.S. alone, our products save about $1 billion a year in consumer electricity bills.    In 2005, Congress amended the Energy Policy and Conservation Act to define and direct the Department of Energy to set standards for external power supplies, such as this device that I am holding here. An external power supply was defined as a device, a circuit that is used to convert household electric current into DC current or low voltage AC current to operate a consumer product. It can be readily seen that the definition of an external power supply uses the words ``external,'' ``power,'' and ``supply,'' but as technology has advanced this definition has created significant confusion in the lighting industry.    According to the Department of Energy, the EPS products that were meant to be covered are those that as it says convert household electric current to operate a consumer product such as a laptop computer or a smart phone or an answering machine, et cetera. However, given the broad definition in EPACT 2005, additional products were brought into the definition of a covered product via the DOE rulemaking process.    In 2014, DOE issued a final rule for the latest round of standards for external power supplies. Despite Lutron and other companies asking in writing and in public meetings for the Department to clearly identify what types of products impacting lighting technologies might be covered as external power supplies, no clear answer was provided until the final rule was issued. The final rule includes as regulated EPS certain drivers for solid state lighting products, such as perhaps this one, which industry and the efficiency community agree were never intended by Congress to be considered external power supplies.    The EPS Improvement Act resolves this unintended consequence by amending and clarifying the statutory definition of external power supply to exclude solid state lighting drivers that are designed to be connected to and power light-emitting diodes, LEDs, or organic light-emitting diodes, OLEDs that provide illumination. The bill then restates the conditions under which the DOE could undertake a rulemaking in the future for solid state drivers subject to current statutory requirements. Furthermore, the language also requires that DOE make public the testing procedure requirements for at least a year before any energy conservation standard for these technologies is prescribed.    This necessary fix has wide support. Not only does it have bipartisan support, but it also has support from both manufacturers and the energy efficiency community. And the same language has already passed the House by a voice vote as an amendment to H.R. 8, the North American Energy Security and Infrastructure Act of 2015.    Without action before February 10th, solid state drivers would be left in the EPS final rule which would be disruptive for the transition to more energy-efficient lighting in the marketplace. As has already been stated, LED drivers represent the next wave of lighting technology and capabilities, and significant investment in this technology is ongoing in industry. Anything that would slow this evolving and beneficial technology would threaten additional investment.    I want to, lastly, especially thank Representatives Ellmers, Dent, DeGette, Pompeo, and Matsui whose leadership is very much appreciated on this issue. Thank you, and I would be happy to answer any questions.</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Capps. Thank you, Mr. Chairman, for holding this hearing, and I am going to thank our witnesses for your testimonies.    Investing in and implementing technologies that embrace and improve upon energy efficiency is critical. It is clear that this is not a simple task. Improvements must be made in every sector of our lives from every day consumer products to industrial applications. This is exactly why Congress first enacted legislation on improving energy efficiency and established much needed conservation measures.    And one of the most important questions when it comes to energy efficiency is how we can provide ample energy-efficient and cost-effective lighting for people all across the world. Our societies are built around an infrastructure that supports sufficient, affordable and reliable light.    Just as it is across the world, the pursuit of innovations and efficient lighting has been and continues to be important to my congressional district. In fact, the community in my district where I live, Santa Barbara, has been instrumental in the development of LED technology, as you both know. Shuji Nakamura is a professor in the materials science department at UC Santa Barbara, has spent decades working on LED technology including developing a process for producing the bright blue LED. And the blue LED in turn allowed for the development of the white LED, an incredibly efficient form of lighting that is changing the landscape of consumer and industrial lighting as we know it.    Recognizing the importance of this research, Professor Nakamura was awarded the Nobel Prize in physics in 2014 along with two other researchers. And my campus, the UC Santa Barbara, continues to lead the way in research into LED technologies.    Santa Barbara is also the home of the research lab for CREE, which is one of the market leading innovators of consumer LED technology. CREE was responsible for the production of the first LED that was appropriate for general consumer lighting and continues to lead the way in innovation production of energy-efficient LEDs.    Again my district has been at the forefront of accessible lighting around the world. For example, the Institute for Energy Efficiency at UC Santa Barbara has worked with the nonprofit Unite to Light to provide reading lamps to people across the world which replaces dangerous kerosene lamps with solar charged LED reading lights. I have one of these in my home. They are very efficient. And these lights improve health and promote education by providing safe and reliable lighting around the world. Unite to Light has distributed over 50,000 lights in 64 countries to date.    And these innovations are making a difference, and while we certainly need these innovators and entrepreneurs, we also need to ensure that we have a legislative landscape that supports and encourages the continued development of this and other similar technologies.    So Ms. Amann, based on the testimony you provided, it seems the current rule from the DOE has the potential to significantly impact the continued growth and availability of LED technology. Can you elaborate on how the availability of LED technology would be impacted by the existing rule in the absence of proposed legislation?</t>
   </si>
   <si>
@@ -304,9 +280,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman, and thanks to our panel for being with us today, really appreciate it. Sorry we are kind of in and out. We have another committee hearing running with the same thing downstairs.    But if I could, the lighting industry represents about 2,500 jobs in my home State of Ohio, and having talked with several of these manufacturers I have serious concerns with the external power supply energy conservation standard including LED and OLED technologies. And Dr. Hakkarainen, could you give us some examples in real-world applications of these products?</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Ms. Amann, I am glad to see efficiency advocates in industry working side by side. Does the DOE currently support SSL technology?</t>
   </si>
   <si>
@@ -394,9 +364,6 @@
     <t>412480</t>
   </si>
   <si>
-    <t>Bill Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Mr. Chairman, thank you. I have no questions.</t>
   </si>
   <si>
@@ -404,9 +371,6 @@
   </si>
   <si>
     <t>412280</t>
-  </si>
-  <si>
-    <t>Gregg Harper</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman. No questions for me either.</t>
@@ -841,11 +805,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -867,11 +829,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -891,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -919,11 +877,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -943,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -971,11 +925,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -995,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1023,11 +973,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1049,11 +997,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1075,11 +1021,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1101,11 +1045,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1127,11 +1069,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1153,11 +1093,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1179,11 +1117,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1205,11 +1141,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1231,11 +1165,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1257,11 +1189,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1283,11 +1213,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1309,11 +1237,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1335,11 +1261,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1361,11 +1285,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1387,11 +1309,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1413,11 +1333,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1439,11 +1357,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1465,11 +1381,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1491,11 +1405,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1517,11 +1429,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1543,11 +1453,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1569,11 +1477,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1595,11 +1501,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1621,11 +1525,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1645,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1673,11 +1573,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1697,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1725,11 +1621,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1749,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1777,11 +1669,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1801,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1827,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1855,11 +1741,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1879,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1907,11 +1789,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1933,11 +1813,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1957,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1985,11 +1861,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2011,11 +1885,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2035,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2063,11 +1933,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2087,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2115,11 +1981,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2139,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2167,11 +2029,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2191,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2219,11 +2077,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2243,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2271,11 +2125,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2295,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2323,11 +2173,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2347,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2375,11 +2221,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>34</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2399,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2427,11 +2269,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2451,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2479,11 +2317,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2503,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2531,11 +2365,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2555,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2583,11 +2413,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2607,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2635,11 +2461,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2659,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2687,11 +2509,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2711,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
-      </c>
-      <c r="G74" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2739,11 +2557,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2763,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2791,11 +2605,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2815,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2843,11 +2653,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2867,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2895,11 +2701,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2919,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>96</v>
-      </c>
-      <c r="H82" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2947,11 +2749,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>34</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2971,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2999,11 +2797,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3023,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3051,11 +2845,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>29</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3075,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3103,11 +2893,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3127,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3155,11 +2941,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3179,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3207,11 +2989,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>34</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3231,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>109</v>
-      </c>
-      <c r="G94" t="s">
-        <v>110</v>
-      </c>
-      <c r="H94" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3259,11 +3037,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>34</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3283,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3311,11 +3085,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3335,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3363,11 +3133,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3387,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3415,11 +3181,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3439,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3467,11 +3229,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3493,11 +3253,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3519,11 +3277,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>29</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3545,11 +3301,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3571,11 +3325,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3597,11 +3349,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3623,11 +3373,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>34</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3649,11 +3397,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3675,11 +3421,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3701,11 +3445,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3727,11 +3469,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99854.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99854.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and today's hearing is going to be on the EPS Improvement Act of 2016. And I will introduce our witnesses after we have an opportunity to make an opening statement.    But this hearing this morning is going to be focused on our efforts to correct a little glitch in the 2005 Energy Policy Act relating to external power sources and solid state liquid lighting systems.</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t>412457</t>
   </si>
   <si>
+    <t>Ellmers</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Chairman Whitfield, so much for this opportunity and for holding this hearing today, and I want to thank our panel for being here as well. There are many people who have been working on this issue trying to correct the glitch in the regulations, coming up and helping to draft this legislation and make this hearing possible.    First, I would like to thank my colleagues, Mike Pompeo, Diana DeGette, Doris Matsui, and Charlie Dent, and their staff for their support and hard work throughout this process. Finally, but most importantly, Mr. Chairman, I would like to thank the committee staff itself. You have put up a great teamwork together on this issue and you have been wonderful in working with my staff and throughout this whole process. I am truly thankful and grateful for their time and effort.    The EPS Improvement Act of 2016 is a bipartisan and commonsense bill that would provide certainty to manufacturers and resolve the underlying issues of the DOE external power supply rule. In 2005, Congress directed the Department of Energy to develop energy efficiency standards for external power supplies and they developed a definition for EPS devices. DOE stated that the products that were intended to be covered by these standards, quote, convert household electric current into DC or lower power voltage to AC to operate consumer products such as laptop computers or smart phones. And that is pretty much the plan.    Years after the passage of the Energy Policy Act of 2005, new technologies arose such as OLED and LED drivers were introduced into the marketplace. We all know how quickly technology is advancing, and innovation. While the development of this technology increased energy efficiency, it has also caused uncertainty in the manufacturing sector as DOE roped in drivers as products to also be covered.    DOE is now attempting to regulate a product that was not in the marketplace at the time Congress initially directed the Department to set external power supply standards. Both manufacturers and the energy efficiency community agree that this was not the intent of Congress, as LED and OLED drivers were not in the marketplace in 2005 when Congress directed DOE to develop these standards. DOE has continued with this misguided rule despite the distinct differences in the design and use of LED drivers to that of the design and use of EPS.    One example of the differences is that EPS use single stage power conversion while LED drivers use a two stage power conversion. Thankfully, this legislation resolves the problem by excluding SSL drivers for this technology and prevents it from being included in other broad rulemaking. This regulation will not only stifle innovation but inject uncertainty into the manufacturing sector while creating less energy-efficient products and higher energy prices for consumers.    Without congressional action by February 10th of this year, this rule could unintentionally threaten thousands of jobs. I look forward to hearing from our witnesses, and with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. Well, thank you, Mr. Chairman. We are here today to hold the legislative hearing on the External Power Supply, or EPS, Improvement Act, which addresses an important issue for LED innovation, manufacturers and future investments in this exciting industry. The EPS Improvement Act would exempt electrical drivers that power solid state lighting products from the Department of Energy's energy conservation standard for external power supplies.    This targeted bill sponsored by my colleagues Renee Ellmers and Diana DeGette would amend the Energy Policy and Conservation Act to exclude LED drivers from standards that go into effect on February 10th of this year. Energy efficiency standards are important as they save consumers money on their energy bills and reduce greenhouse gas emissions.    It is estimated that the national appliance and equipment efficiency standards have saved, believe it or not, 5.4 quadrillion BTUs of energy in 2014 alone. The standards enacted to date will save consumers and businesses more than $1.1 trillion through 2035--I see heads nodding here--and the technology innovation spurred by these standards is critical. We need to support innovation to address climate change with energy efficiency and renewable technology.    My Grid Innovation Caucus co-chairwoman, Congresswoman Ellmers, and I believe that we must promote technologies that help us adopt to our growing energy needs and provide additional options for consumers, businesses and the economy. And we must use the energy standards in a manner that does not confuse the market. At the time the Energy Policy and Conservation Act was amended, LED drivers were an emerging technology but they still fell under the broad definition of an external power supply. LED drivers represent the next wave of lighting technology and capabilities enabling smart buildings, industry facilities and homes and reduce their costs and enhance their performance.    Investments in LED driver technology are robust and ongoing; new standards at this time could slow down additional investments. Leaving LED drivers in the EPS final rule could hinder the transition to more energy-efficient lighting in the marketplace and increase energy use and the cost for consumers.    This legislation, however, does not grant the Department of Energy the authority to prescribe energy conservation standards down the road, or it does grant--excuse me--the DOE the authority to prescribe energy conservation standards down the road so that it can implement more appropriate standards for the LED industry when the time is appropriate.    I support this EPS Improvement Act because it clarifies congressional intent by clarifying the statutory definition of external power supplies to exclude LED drivers. This measure was developed in consultation with the DOE and is supported by industry stakeholders. We should provide LED manufacturers market stability so they are able to improve technology that has already been demonstrated in its ability to increase energy efficiency in consumer and commercial applications.    I thank our witnesses for joining us today and look forward to hearing your testimony. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -79,15 +97,27 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. I want to thank you and the ranking member of the subcommittee for holding today's legislative hearing on the EPS Improvement Act of 2010. This bill authored by Representatives Ellmers and DeGette would exempt LED consumer light bulbs from new mandatory efficiency standards for external power supplies. And the development of LED light bulbs has been an energy efficiency success story and I am concerned about any action no matter how well intentioned that might interfere with that success.    More than a decade ago, Congress amended the Energy Policy and Conservation Act to set efficiency standards for external power supplies. An external power supply, or EPS, is typically used to convert household electric current to help operate consumer products. For most Americans that means the big plugs that are associated with laptop computers, home cordless phones, answering machines and the like. As part of this regulation, the DOE has moved forward on a plan to include power drivers for solid state lighting which are an integral part of highly efficient LED replacement light bulbs. In its comments with stakeholders it is clear that DOE needs statutory authority to alter the law's definitions.    Meanwhile, the National Electrical Manufacturers Association argued that Congress didn't intend to cover consumer LED light bulbs when it enacted EPACT 2005, or when it amended the law in the 2007 Energy Independence and Security Act. I am inclined to agree that Congress did not intend to capture LED light bulbs in the 2014 rule. The regulation of EPSs has been discussed at length both in this committee and within the stakeholder community. Never once had LED light bulbs been contemplated; instead, the discussion was focused on television sets, computers and stereo equipment.    So it is clear to me, however, that Congress' multiple efforts to legislate in this area over a short time frame has added confusion rather than clarity to the statute who explicitly carved out some things like medical devices from the definition of an EPS, but we did not carve out LED light bulbs. I think that had we known more about the workings of LED light bulbs at the time we would have exempted them specifically from mandatory efficiency standards from the start.    So right now, a modern LED light bulb that replaces the kind of 60-watt light bulb we used in the last century will only consume nine watts of power to produce the same amount of light, last for a decade, and sells for as little as $3.99. That is a great deal for any consumer and I see no benefit to the consumer, the environment or the economy from regulating the efficiency of these light bulbs at this time.    I am encouraged by today's legislative hearing to put this issue in perspective and I am hopeful we can work together to expeditiously move this bill forward. And I would just like now to yield the balance of my time to the lead sponsor of the legislation, the gentlewoman from Colorado, Ms. DeGette.</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you very much for yielding to me, Ranking Member Pallone. I am really proud to be leading this bill with Representative Ellmers, truly working across the aisle, literally, today. And as has been said, this bill will allow the Department of Energy to provide, to prescribe a separate energy conservation standard for LED drivers.    As we have been discussing, when this committee wrote the Energy Policy and Conservation Act of 2005 it directed the Department of Energy to develop a conservation standard for various external power supply products. That term was meant to cover products that convert household electric current in order to operate a consumer product like a laptop computer or a smart phone.    At that time in 2005, LED lighting was in its very early stages. And as much we try and often succeed, we didn't have a crystal ball to see into the future of LED lighting. So since that time because of the broad definition we created for external power supplies, emergent LED drivers were swept up into a conservation standard that just doesn't make sense. This means that, although LED drivers are highly energy-efficient, they can't meet the EPS conservation standard and their ability to compete in the competitive lighting market is now an open question.    Well, it seems like a technicality, but the bill is actually vitally important. LED drivers represent the next wave of lighting technology allowing for better and faster Internet connections, enabling smart buildings, industry facilities and homes to reduce their costs, improving consumer experiences in the retail industry and even leading to even faster recovery times in hospitals by controlling the color and timing of the lights in recovery rooms.    It is estimated that switching to LED lighting could reduce national lighting electricity use by nearly one half by 2030. That is the annual equivalent to saving three quadrillion BTUs, which is worth $26 billion in today's standards. So by passing the EPS Improvement Act of 2016 will let the LED lighting revolution continue, and in turn help lower energy prices for every American business.    I want to thank the panelists for coming today. I look forward to your testimony, and I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. That concludes our opening statements. And before I introduce our panel of witnesses I do want to thank both the Democratic and Republican staff, certainly Diana DeGette and Renee Ellmers for working together on this important legislation. And we appreciate very much the National Electrical Manufacturers Association and the American Council for an Energy-Efficient Economy helping us to craft this legislation.    And we are delighted that we have two witnesses here today representing those organizations. First of all, we have Jennifer Amann who is the Buildings Program director at the American Council for an Energy-Efficient Economy, and then we have Dr. Pekka Hakkarainen who is vice president of Lutron Electronics. I think they are from Pennsylvania, I believe. And you are testifying on behalf of the National Electrical Manufacturers Association.    So we appreciate both of you being with us this morning, and we look forward to your opening statement and your expertise in this area. And with that Ms. Amann, I will recognize you for your 5-minute opening statement.</t>
   </si>
   <si>
+    <t>Amann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Amann. My name is Jennifer Amann, and I am----</t>
   </si>
   <si>
@@ -100,6 +130,9 @@
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you very much. And Dr. Hakkarainen, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Hakkarainen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hakkarainen. Good morning, Chairman Whitfield and Congressman McNerney and members of the committee. My name is Pekka Hakkarainen. I am vice president at Lutron. I have been employed there for 25 years.    I want to first thank the committee for giving me the opportunity to testify on the EPS Improvement Act. The bill before you fixes a needed technical issue with the Department of Energy's February 2014 EPS energy conservation standard that goes into effect on February 10th of this year. I am here today testifying on behalf of Lutron Electronics and the National Electrical Manufacturers Association.    A number of NEMA's members who manufacture and distribute solid state LED lighting products are impacted by the DOE external power supply standard. My company Lutron Electronics is a privately held manufacturer founded in 1961 and is headquartered in Coopersburg, Pennsylvania. Our products range from consumer dimmers to motorized window shades to lighting management systems for both residential and commercial buildings, and they also include LED drivers. And we estimate that in the U.S. alone, our products save about $1 billion a year in consumer electricity bills.    In 2005, Congress amended the Energy Policy and Conservation Act to define and direct the Department of Energy to set standards for external power supplies, such as this device that I am holding here. An external power supply was defined as a device, a circuit that is used to convert household electric current into DC current or low voltage AC current to operate a consumer product. It can be readily seen that the definition of an external power supply uses the words ``external,'' ``power,'' and ``supply,'' but as technology has advanced this definition has created significant confusion in the lighting industry.    According to the Department of Energy, the EPS products that were meant to be covered are those that as it says convert household electric current to operate a consumer product such as a laptop computer or a smart phone or an answering machine, et cetera. However, given the broad definition in EPACT 2005, additional products were brought into the definition of a covered product via the DOE rulemaking process.    In 2014, DOE issued a final rule for the latest round of standards for external power supplies. Despite Lutron and other companies asking in writing and in public meetings for the Department to clearly identify what types of products impacting lighting technologies might be covered as external power supplies, no clear answer was provided until the final rule was issued. The final rule includes as regulated EPS certain drivers for solid state lighting products, such as perhaps this one, which industry and the efficiency community agree were never intended by Congress to be considered external power supplies.    The EPS Improvement Act resolves this unintended consequence by amending and clarifying the statutory definition of external power supply to exclude solid state lighting drivers that are designed to be connected to and power light-emitting diodes, LEDs, or organic light-emitting diodes, OLEDs that provide illumination. The bill then restates the conditions under which the DOE could undertake a rulemaking in the future for solid state drivers subject to current statutory requirements. Furthermore, the language also requires that DOE make public the testing procedure requirements for at least a year before any energy conservation standard for these technologies is prescribed.    This necessary fix has wide support. Not only does it have bipartisan support, but it also has support from both manufacturers and the energy efficiency community. And the same language has already passed the House by a voice vote as an amendment to H.R. 8, the North American Energy Security and Infrastructure Act of 2015.    Without action before February 10th, solid state drivers would be left in the EPS final rule which would be disruptive for the transition to more energy-efficient lighting in the marketplace. As has already been stated, LED drivers represent the next wave of lighting technology and capabilities, and significant investment in this technology is ongoing in industry. Anything that would slow this evolving and beneficial technology would threaten additional investment.    I want to, lastly, especially thank Representatives Ellmers, Dent, DeGette, Pompeo, and Matsui whose leadership is very much appreciated on this issue. Thank you, and I would be happy to answer any questions.</t>
   </si>
   <si>
@@ -253,6 +286,12 @@
     <t>400062</t>
   </si>
   <si>
+    <t>Capps</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Capps. Thank you, Mr. Chairman, for holding this hearing, and I am going to thank our witnesses for your testimonies.    Investing in and implementing technologies that embrace and improve upon energy efficiency is critical. It is clear that this is not a simple task. Improvements must be made in every sector of our lives from every day consumer products to industrial applications. This is exactly why Congress first enacted legislation on improving energy efficiency and established much needed conservation measures.    And one of the most important questions when it comes to energy efficiency is how we can provide ample energy-efficient and cost-effective lighting for people all across the world. Our societies are built around an infrastructure that supports sufficient, affordable and reliable light.    Just as it is across the world, the pursuit of innovations and efficient lighting has been and continues to be important to my congressional district. In fact, the community in my district where I live, Santa Barbara, has been instrumental in the development of LED technology, as you both know. Shuji Nakamura is a professor in the materials science department at UC Santa Barbara, has spent decades working on LED technology including developing a process for producing the bright blue LED. And the blue LED in turn allowed for the development of the white LED, an incredibly efficient form of lighting that is changing the landscape of consumer and industrial lighting as we know it.    Recognizing the importance of this research, Professor Nakamura was awarded the Nobel Prize in physics in 2014 along with two other researchers. And my campus, the UC Santa Barbara, continues to lead the way in research into LED technologies.    Santa Barbara is also the home of the research lab for CREE, which is one of the market leading innovators of consumer LED technology. CREE was responsible for the production of the first LED that was appropriate for general consumer lighting and continues to lead the way in innovation production of energy-efficient LEDs.    Again my district has been at the forefront of accessible lighting around the world. For example, the Institute for Energy Efficiency at UC Santa Barbara has worked with the nonprofit Unite to Light to provide reading lamps to people across the world which replaces dangerous kerosene lamps with solar charged LED reading lights. I have one of these in my home. They are very efficient. And these lights improve health and promote education by providing safe and reliable lighting around the world. Unite to Light has distributed over 50,000 lights in 64 countries to date.    And these innovations are making a difference, and while we certainly need these innovators and entrepreneurs, we also need to ensure that we have a legislative landscape that supports and encourages the continued development of this and other similar technologies.    So Ms. Amann, based on the testimony you provided, it seems the current rule from the DOE has the potential to significantly impact the continued growth and availability of LED technology. Can you elaborate on how the availability of LED technology would be impacted by the existing rule in the absence of proposed legislation?</t>
   </si>
   <si>
@@ -280,6 +319,12 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman, and thanks to our panel for being with us today, really appreciate it. Sorry we are kind of in and out. We have another committee hearing running with the same thing downstairs.    But if I could, the lighting industry represents about 2,500 jobs in my home State of Ohio, and having talked with several of these manufacturers I have serious concerns with the external power supply energy conservation standard including LED and OLED technologies. And Dr. Hakkarainen, could you give us some examples in real-world applications of these products?</t>
   </si>
   <si>
@@ -319,6 +364,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Ms. Amann, I am glad to see efficiency advocates in industry working side by side. Does the DOE currently support SSL technology?</t>
   </si>
   <si>
@@ -364,6 +415,12 @@
     <t>412480</t>
   </si>
   <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Flores. Mr. Chairman, thank you. I have no questions.</t>
   </si>
   <si>
@@ -371,6 +428,12 @@
   </si>
   <si>
     <t>412280</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman. No questions for me either.</t>
@@ -755,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,2693 +848,3108 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
+        <v>101</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>101</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>100</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>133</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G102" t="s">
+        <v>138</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99854.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99854.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>412457</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Ellmers</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -818,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +835,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,3105 +860,3296 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>36</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I88" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G98" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>30</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>38</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>36</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
